--- a/docs/Proyecto/Diccionario IV.xlsx
+++ b/docs/Proyecto/Diccionario IV.xlsx
@@ -3,19 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25410"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FB5562BC2B04ED00A7BB2E6E231EAB977B5C022F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_FB5562BC2B04ED00A7BB2E6E231EAB977B5C022F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034CD2AF-11D7-4A1F-86B4-8AB79B6B212D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>Tabla</t>
   </si>
@@ -122,6 +134,9 @@
     <t>orientacion</t>
   </si>
   <si>
+    <t>Orientación de las pistas del aeropuerto</t>
+  </si>
+  <si>
     <t>ft</t>
   </si>
   <si>
@@ -185,39 +200,75 @@
     <t>Código Departamento</t>
   </si>
   <si>
+    <t>Identificador del departamento</t>
+  </si>
+  <si>
     <t>Unnamed: 1</t>
   </si>
   <si>
+    <t>No se sabe qué representa está columna, pero existe en la base de datos original</t>
+  </si>
+  <si>
     <t>Código Centro Poblado</t>
   </si>
   <si>
+    <t>Identificador del centro poblado</t>
+  </si>
+  <si>
     <t>Nombre Departamento</t>
   </si>
   <si>
+    <t>Nombre del departamento en el que esta ubicado el centro pobaldo</t>
+  </si>
+  <si>
     <t>Nombre Municipio</t>
   </si>
   <si>
+    <t>Nombre del municipio en el que esta ubicado el centro pobaldo</t>
+  </si>
+  <si>
     <t>Nombre Centro Poblado</t>
   </si>
   <si>
+    <t>Nombre del centro poblado</t>
+  </si>
+  <si>
     <t>Tipo Centro Poblado</t>
   </si>
   <si>
+    <t>Tipo: centro poblado o cabecera municipal</t>
+  </si>
+  <si>
     <t>Longitud</t>
   </si>
   <si>
+    <t>Longitud de ubicación del centro poblado</t>
+  </si>
+  <si>
     <t>Latitud</t>
   </si>
   <si>
+    <t>Latitud de ubicación del centro poblado</t>
+  </si>
+  <si>
     <t>Nombre Distrito</t>
   </si>
   <si>
+    <t>Nombre del distrito del que hace parte el centro poblado</t>
+  </si>
+  <si>
     <t>Municipio/Áreas No Municipalizadas (ANM)</t>
   </si>
   <si>
+    <t>Indicador de si es municipio o area no municipalizada</t>
+  </si>
+  <si>
     <t>Nombre Área Metropolitana</t>
   </si>
   <si>
+    <t>Nombre del area metropolitana del centro poblado</t>
+  </si>
+  <si>
     <t>pib</t>
   </si>
   <si>
@@ -227,12 +278,48 @@
     <t>DEPARTAMENTOS</t>
   </si>
   <si>
+    <t>Nombre del departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2006 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2007 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2008 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2009 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2010 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2011 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2012 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2013 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2014 de cada departamento</t>
+  </si>
+  <si>
+    <t>Valor de PIB para el 2015 de cada departamento</t>
+  </si>
+  <si>
     <t>proyecciones</t>
   </si>
   <si>
     <t>AÑO</t>
   </si>
   <si>
+    <t>Año de la proyeccion</t>
+  </si>
+  <si>
     <t>DP</t>
   </si>
   <si>
@@ -242,7 +329,13 @@
     <t>Total Hombres</t>
   </si>
   <si>
+    <t>Valor proyectado total de hombres en ese año y departamento</t>
+  </si>
+  <si>
     <t>Total Mujeres</t>
+  </si>
+  <si>
+    <t>Valor proyectado total de mujeres en ese año y departamento</t>
   </si>
   <si>
     <t>Vuelos</t>
@@ -617,7 +710,9 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -786,423 +881,506 @@
       <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9"/>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9"/>
       <c r="B27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9"/>
       <c r="B28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9"/>
       <c r="B30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9"/>
       <c r="B31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="9"/>
       <c r="B33" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="9"/>
       <c r="B34" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="9"/>
       <c r="B36" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="9"/>
       <c r="B38" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="9"/>
       <c r="B39" s="6">
         <v>2006</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="9"/>
       <c r="B40" s="6">
         <v>2007</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="9"/>
       <c r="B41" s="6">
         <v>2008</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="9"/>
       <c r="B42" s="6">
         <v>2010</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="9"/>
       <c r="B43" s="6">
         <v>2011</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="9"/>
       <c r="B44" s="6">
         <v>2012</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="9"/>
       <c r="B45" s="6">
         <v>2013</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="9"/>
       <c r="B46" s="6">
         <v>2014</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="9"/>
       <c r="B47" s="6">
         <v>2015</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="9"/>
       <c r="B48" s="6">
         <v>2016</v>
       </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9"/>
       <c r="B50" s="6" t="s">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9"/>
       <c r="B51" s="6" t="s">
-        <v>73</v>
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="9"/>
       <c r="B52" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="6" t="s">
-        <v>75</v>
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="9"/>
       <c r="B55" s="6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="9"/>
       <c r="B56" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="9"/>
       <c r="B57" s="6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="9"/>
       <c r="B58" s="6" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="9"/>
       <c r="B59" s="6" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9"/>
       <c r="B60" s="6" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9"/>
       <c r="B61" s="6" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="6" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="6" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="9"/>
       <c r="B64" s="6" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="9"/>
       <c r="B65" s="6" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="9"/>
       <c r="B66" s="6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D66" s="7"/>
     </row>
@@ -4959,15 +5137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010095A982546346C14DA8D96E97591C79B0" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca64aba0f3bd79084adedb3e66998ced">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c05144fa-b45f-40a6-8288-53f00543b24f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ff44e7724c0aa06768f40f10d317306" ns2:_="">
     <xsd:import namespace="c05144fa-b45f-40a6-8288-53f00543b24f"/>
@@ -5113,6 +5282,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5120,11 +5298,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52F6463-BAC2-4768-AF67-05FCCEC407E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3700FD44-35D1-42A3-93D7-22D21FA67A90}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3700FD44-35D1-42A3-93D7-22D21FA67A90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52F6463-BAC2-4768-AF67-05FCCEC407E6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
